--- a/results/131019-V39.2-1311-2013_Beach_Stylers_-_Open-Turboshred.xlsx
+++ b/results/131019-V39.2-1311-2013_Beach_Stylers_-_Open-Turboshred.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489936D0-B0B9-4B02-AFF0-285414FF7414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479394A1-ED9C-477C-BFB2-17370C5722EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,7 +708,7 @@
     <t>Event:</t>
   </si>
   <si>
-    <t>19.-20.10.2013</t>
+    <t>19.10.2013-20.10.2013</t>
   </si>
 </sst>
 </file>
@@ -2079,26 +2079,222 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2123,10 +2319,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2139,198 +2331,6 @@
     <xf numFmtId="9" fontId="2" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2667,13 +2667,13 @@
       <c r="F2" s="118"/>
       <c r="G2" s="118"/>
       <c r="H2" s="118"/>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="127"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="176"/>
       <c r="N2" s="1"/>
       <c r="T2" s="109"/>
     </row>
@@ -2687,13 +2687,13 @@
       <c r="F3" s="112"/>
       <c r="G3" s="112"/>
       <c r="H3" s="112"/>
-      <c r="I3" s="123" t="s">
+      <c r="I3" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="129"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="178"/>
       <c r="N3" s="1"/>
       <c r="T3" s="109" t="s">
         <v>57</v>
@@ -2712,13 +2712,13 @@
       <c r="F4" s="114"/>
       <c r="G4" s="114"/>
       <c r="H4" s="114"/>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="122"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="173"/>
       <c r="N4" s="1"/>
       <c r="T4" s="109">
         <v>3</v>
@@ -2737,13 +2737,13 @@
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="131"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="164"/>
       <c r="N5" s="1"/>
       <c r="T5" s="109"/>
     </row>
@@ -2757,13 +2757,13 @@
       <c r="F6" s="114"/>
       <c r="G6" s="114"/>
       <c r="H6" s="114"/>
-      <c r="I6" s="132">
+      <c r="I6" s="180">
         <v>12</v>
       </c>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="134"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="182"/>
       <c r="N6" s="1"/>
       <c r="T6" s="109" t="s">
         <v>51</v>
@@ -2785,13 +2785,13 @@
       <c r="F7" s="112"/>
       <c r="G7" s="112"/>
       <c r="H7" s="112"/>
-      <c r="I7" s="135">
-        <v>1</v>
-      </c>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="131"/>
+      <c r="I7" s="183">
+        <v>1</v>
+      </c>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="164"/>
       <c r="N7" s="1"/>
       <c r="T7" s="109" t="s">
         <v>49</v>
@@ -2810,15 +2810,15 @@
       <c r="F8" s="114"/>
       <c r="G8" s="114"/>
       <c r="H8" s="114"/>
-      <c r="I8" s="120" t="s">
+      <c r="I8" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121" t="s">
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="122"/>
+      <c r="M8" s="173"/>
       <c r="N8" s="1"/>
       <c r="T8" s="109" t="s">
         <v>45</v>
@@ -2834,13 +2834,13 @@
       <c r="F9" s="112"/>
       <c r="G9" s="112"/>
       <c r="H9" s="112"/>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="131"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="164"/>
       <c r="N9" s="1"/>
       <c r="T9" s="109" t="s">
         <v>0</v>
@@ -2856,11 +2856,11 @@
       <c r="F10" s="114"/>
       <c r="G10" s="114"/>
       <c r="H10" s="114"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="137"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="161"/>
       <c r="N10" s="1"/>
       <c r="T10" s="109"/>
     </row>
@@ -2874,13 +2874,13 @@
       <c r="F11" s="112"/>
       <c r="G11" s="112"/>
       <c r="H11" s="112"/>
-      <c r="I11" s="123">
+      <c r="I11" s="162">
         <v>1311</v>
       </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="131"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="164"/>
       <c r="N11" s="1"/>
       <c r="T11" s="109"/>
     </row>
@@ -2894,29 +2894,29 @@
       <c r="F12" s="110"/>
       <c r="G12" s="110"/>
       <c r="H12" s="110"/>
-      <c r="I12" s="138">
+      <c r="I12" s="165">
         <v>1511</v>
       </c>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="140"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="167"/>
       <c r="N12" s="1"/>
       <c r="T12" s="109"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="172"/>
       <c r="N13" s="1"/>
       <c r="T13" s="109"/>
     </row>
@@ -2944,9 +2944,9 @@
       <c r="M15" s="70"/>
       <c r="N15" s="69"/>
       <c r="O15" s="63"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="148"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="122"/>
       <c r="T15" s="5">
         <v>6</v>
       </c>
@@ -2992,11 +2992,11 @@
       <c r="N16" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="152" t="s">
+      <c r="Q16" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="153"/>
-      <c r="S16" s="154"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="131"/>
       <c r="T16" s="5"/>
       <c r="U16" s="99" t="s">
         <v>38</v>
@@ -3039,7 +3039,7 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="149">
+      <c r="B18" s="126">
         <v>1</v>
       </c>
       <c r="C18" s="45">
@@ -3098,7 +3098,7 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="150"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="34">
         <v>1</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="151"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="20">
         <v>1</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="149">
+      <c r="B21" s="126">
         <v>2</v>
       </c>
       <c r="C21" s="45">
@@ -3267,7 +3267,7 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="150"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="34">
         <v>2</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="151"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="20">
         <v>2</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="149">
+      <c r="B24" s="126">
         <v>3</v>
       </c>
       <c r="C24" s="45">
@@ -3436,7 +3436,7 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="150"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="34">
         <v>3</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="151"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="20">
         <v>3</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="149">
+      <c r="B27" s="126">
         <v>4</v>
       </c>
       <c r="C27" s="45">
@@ -3605,7 +3605,7 @@
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="150"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="34">
         <v>4</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="151"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="20">
         <v>4</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="149">
+      <c r="B30" s="126">
         <v>5</v>
       </c>
       <c r="C30" s="45">
@@ -3774,7 +3774,7 @@
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="150"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="34">
         <v>5</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="151"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="20">
         <v>5</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="149">
+      <c r="B33" s="126">
         <v>6</v>
       </c>
       <c r="C33" s="45">
@@ -3943,7 +3943,7 @@
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="150"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="34">
         <v>6</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="151"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="20">
         <v>6</v>
       </c>
@@ -4093,9 +4093,9 @@
       <c r="N37" s="69"/>
       <c r="O37" s="63"/>
       <c r="P37" s="62"/>
-      <c r="Q37" s="146"/>
-      <c r="R37" s="147"/>
-      <c r="S37" s="148"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="122"/>
       <c r="T37" s="5">
         <v>4</v>
       </c>
@@ -4103,118 +4103,118 @@
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="149" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
-      <c r="E38" s="170" t="s">
+      <c r="E38" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="173" t="s">
+      <c r="F38" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="173" t="s">
+      <c r="G38" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="176" t="s">
+      <c r="H38" s="155" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="67"/>
-      <c r="J38" s="167" t="s">
+      <c r="J38" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="173" t="s">
+      <c r="K38" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="M38" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="N38" s="155" t="s">
+      <c r="L38" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="137" t="s">
         <v>12</v>
       </c>
       <c r="O38" s="63"/>
       <c r="P38" s="62"/>
-      <c r="Q38" s="158" t="s">
+      <c r="Q38" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="R38" s="159"/>
-      <c r="S38" s="160"/>
+      <c r="R38" s="141"/>
+      <c r="S38" s="142"/>
       <c r="W38" s="4"/>
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="168"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="101"/>
       <c r="D39" s="101"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="156"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="138"/>
       <c r="I39" s="67"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="171" t="s">
+      <c r="J39" s="150"/>
+      <c r="K39" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="177"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="156"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="138"/>
       <c r="O39" s="63"/>
       <c r="P39" s="62"/>
-      <c r="Q39" s="161"/>
-      <c r="R39" s="162"/>
-      <c r="S39" s="163"/>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="144"/>
+      <c r="S39" s="145"/>
       <c r="T39" s="5"/>
       <c r="W39" s="4"/>
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="168"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="156"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="138"/>
       <c r="I40" s="67"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="171" t="s">
+      <c r="J40" s="150"/>
+      <c r="K40" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="177"/>
-      <c r="M40" s="179"/>
-      <c r="N40" s="156"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="156"/>
+      <c r="N40" s="138"/>
       <c r="O40" s="63"/>
       <c r="P40" s="62"/>
-      <c r="Q40" s="161"/>
-      <c r="R40" s="162"/>
-      <c r="S40" s="163"/>
+      <c r="Q40" s="143"/>
+      <c r="R40" s="144"/>
+      <c r="S40" s="145"/>
       <c r="T40" s="5"/>
       <c r="W40" s="4"/>
       <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="2:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="169"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="100"/>
       <c r="D41" s="100"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="157"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="139"/>
       <c r="I41" s="56"/>
-      <c r="J41" s="169"/>
-      <c r="K41" s="172" t="s">
+      <c r="J41" s="151"/>
+      <c r="K41" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="178"/>
-      <c r="M41" s="180"/>
-      <c r="N41" s="157"/>
-      <c r="Q41" s="164"/>
-      <c r="R41" s="165"/>
-      <c r="S41" s="166"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="139"/>
+      <c r="Q41" s="146"/>
+      <c r="R41" s="147"/>
+      <c r="S41" s="148"/>
       <c r="T41" s="5"/>
       <c r="W41" s="4"/>
       <c r="Y41" s="3"/>
@@ -4251,7 +4251,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="149">
+      <c r="B43" s="126">
         <v>1</v>
       </c>
       <c r="C43" s="45">
@@ -4314,7 +4314,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="150"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="34">
         <v>1</v>
       </c>
@@ -4370,7 +4370,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" s="62" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="151"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="20">
         <v>1</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="AA45" s="97"/>
     </row>
     <row r="46" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="149">
+      <c r="B46" s="126">
         <v>2</v>
       </c>
       <c r="C46" s="45">
@@ -4494,7 +4494,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="150"/>
+      <c r="B47" s="127"/>
       <c r="C47" s="34">
         <v>2</v>
       </c>
@@ -4550,7 +4550,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="151"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="20">
         <v>2</v>
       </c>
@@ -4606,7 +4606,7 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="149">
+      <c r="B49" s="126">
         <v>3</v>
       </c>
       <c r="C49" s="45">
@@ -4669,7 +4669,7 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="150"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="34">
         <v>3</v>
       </c>
@@ -4725,7 +4725,7 @@
       </c>
     </row>
     <row r="51" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="151"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="20">
         <v>3</v>
       </c>
@@ -4781,7 +4781,7 @@
       </c>
     </row>
     <row r="52" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="149">
+      <c r="B52" s="126">
         <v>4</v>
       </c>
       <c r="C52" s="45">
@@ -4844,7 +4844,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="150"/>
+      <c r="B53" s="127"/>
       <c r="C53" s="34">
         <v>4</v>
       </c>
@@ -4900,7 +4900,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="151"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="20">
         <v>4</v>
       </c>
@@ -5001,9 +5001,9 @@
       <c r="N56" s="69"/>
       <c r="O56" s="63"/>
       <c r="P56" s="62"/>
-      <c r="Q56" s="146"/>
-      <c r="R56" s="147"/>
-      <c r="S56" s="148"/>
+      <c r="Q56" s="120"/>
+      <c r="R56" s="121"/>
+      <c r="S56" s="122"/>
       <c r="T56" s="5">
         <v>4</v>
       </c>
@@ -5045,11 +5045,11 @@
       <c r="N57" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q57" s="152" t="s">
+      <c r="Q57" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="R57" s="153"/>
-      <c r="S57" s="154"/>
+      <c r="R57" s="130"/>
+      <c r="S57" s="131"/>
       <c r="T57" s="5"/>
       <c r="W57" s="4"/>
       <c r="Y57" s="3"/>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="59" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="149">
+      <c r="B59" s="126">
         <v>1</v>
       </c>
       <c r="C59" s="45">
@@ -5148,7 +5148,7 @@
     </row>
     <row r="60" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="150"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="34">
         <v>1</v>
       </c>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="61" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
-      <c r="B61" s="151"/>
+      <c r="B61" s="128"/>
       <c r="C61" s="20">
         <v>1</v>
       </c>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="62" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="149">
+      <c r="B62" s="126">
         <v>2</v>
       </c>
       <c r="C62" s="45">
@@ -5326,7 +5326,7 @@
     </row>
     <row r="63" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="150"/>
+      <c r="B63" s="127"/>
       <c r="C63" s="34">
         <v>2</v>
       </c>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="64" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
-      <c r="B64" s="151"/>
+      <c r="B64" s="128"/>
       <c r="C64" s="20">
         <v>2</v>
       </c>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="65" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="149">
+      <c r="B65" s="126">
         <v>3</v>
       </c>
       <c r="C65" s="45">
@@ -5504,7 +5504,7 @@
     </row>
     <row r="66" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="150"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="34">
         <v>3</v>
       </c>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="67" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
-      <c r="B67" s="151"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="20">
         <v>3</v>
       </c>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="68" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="149">
+      <c r="B68" s="126">
         <v>4</v>
       </c>
       <c r="C68" s="45">
@@ -5682,7 +5682,7 @@
     </row>
     <row r="69" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="150"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="34">
         <v>4</v>
       </c>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="70" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
-      <c r="B70" s="151"/>
+      <c r="B70" s="128"/>
       <c r="C70" s="20">
         <v>4</v>
       </c>
@@ -5837,9 +5837,9 @@
       <c r="N72" s="69"/>
       <c r="O72" s="63"/>
       <c r="P72" s="62"/>
-      <c r="Q72" s="146"/>
-      <c r="R72" s="147"/>
-      <c r="S72" s="148"/>
+      <c r="Q72" s="120"/>
+      <c r="R72" s="121"/>
+      <c r="S72" s="122"/>
       <c r="T72" s="5">
         <v>4</v>
       </c>
@@ -5883,11 +5883,11 @@
       </c>
       <c r="O73" s="63"/>
       <c r="P73" s="62"/>
-      <c r="Q73" s="181" t="s">
+      <c r="Q73" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="R73" s="182"/>
-      <c r="S73" s="183"/>
+      <c r="R73" s="124"/>
+      <c r="S73" s="125"/>
       <c r="T73" s="5"/>
       <c r="W73" s="4"/>
       <c r="Y73" s="3"/>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="75" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="149">
+      <c r="B75" s="126">
         <v>1</v>
       </c>
       <c r="C75" s="45">
@@ -5986,7 +5986,7 @@
     </row>
     <row r="76" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="150"/>
+      <c r="B76" s="127"/>
       <c r="C76" s="34">
         <v>1</v>
       </c>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="77" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
-      <c r="B77" s="151"/>
+      <c r="B77" s="128"/>
       <c r="C77" s="20">
         <v>1</v>
       </c>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="78" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="149">
+      <c r="B78" s="126">
         <v>2</v>
       </c>
       <c r="C78" s="45">
@@ -6164,7 +6164,7 @@
     </row>
     <row r="79" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="150"/>
+      <c r="B79" s="127"/>
       <c r="C79" s="34">
         <v>2</v>
       </c>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="80" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
-      <c r="B80" s="151"/>
+      <c r="B80" s="128"/>
       <c r="C80" s="20">
         <v>2</v>
       </c>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="81" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="149">
+      <c r="B81" s="126">
         <v>3</v>
       </c>
       <c r="C81" s="45">
@@ -6342,7 +6342,7 @@
     </row>
     <row r="82" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="150"/>
+      <c r="B82" s="127"/>
       <c r="C82" s="34">
         <v>3</v>
       </c>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="83" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
-      <c r="B83" s="151"/>
+      <c r="B83" s="128"/>
       <c r="C83" s="20">
         <v>3</v>
       </c>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="84" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="149">
+      <c r="B84" s="126">
         <v>4</v>
       </c>
       <c r="C84" s="45">
@@ -6520,7 +6520,7 @@
     </row>
     <row r="85" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
-      <c r="B85" s="150"/>
+      <c r="B85" s="127"/>
       <c r="C85" s="34">
         <v>4</v>
       </c>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="86" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
-      <c r="B86" s="151"/>
+      <c r="B86" s="128"/>
       <c r="C86" s="20">
         <v>4</v>
       </c>
@@ -6634,23 +6634,31 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="N38:N41"/>
     <mergeCell ref="Q38:S41"/>
     <mergeCell ref="B43:B45"/>
@@ -6661,31 +6669,23 @@
     <mergeCell ref="H38:H41"/>
     <mergeCell ref="J38:J41"/>
     <mergeCell ref="M38:M41"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
   </mergeCells>
   <conditionalFormatting sqref="Q18:S35 Q43:S54 Q59:S70 Q75:S86">
     <cfRule type="expression" dxfId="0" priority="1">
